--- a/data/trans_dic/P8_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P8_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que vive en hogares unipersonales</t>
+          <t>Población que vive en hogares unipersonales (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>10,33%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,67</t>
+          <t>2,07; 10,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 9,78</t>
+          <t>2,99; 11,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,17</t>
+          <t>2,51; 10,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 9,4</t>
+          <t>3,25; 11,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 12,0</t>
+          <t>4,95; 14,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 10,8</t>
+          <t>3,97; 11,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 11,75</t>
+          <t>3,53; 11,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 12,44</t>
+          <t>5,21; 13,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 9,8</t>
+          <t>5,58; 14,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 9,11</t>
+          <t>6,97; 16,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,46</t>
+          <t>4,1; 9,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 9,86</t>
+          <t>4,28; 9,82</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 10,21</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 11,34</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>7,4; 14,24</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 12,77</t>
+          <t>2,69; 16,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 14,6</t>
+          <t>2,64; 18,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 15,69</t>
+          <t>3,78; 20,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 14,32</t>
+          <t>3,34; 16,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,66; 12,4</t>
+          <t>5,1; 18,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,06</t>
+          <t>3,36; 11,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,16</t>
+          <t>3,32; 11,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 6,53</t>
+          <t>3,48; 11,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 10,54</t>
+          <t>2,95; 10,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 9,4</t>
+          <t>5,3; 15,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 10,2</t>
+          <t>3,79; 10,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,16</t>
+          <t>3,81; 11,69</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 13,2</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 11,26</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 14,01</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 18,67</t>
+          <t>0,0; 17,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 18,58</t>
+          <t>0,0; 17,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 18,95</t>
+          <t>0,0; 16,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 18,52</t>
+          <t>0,0; 16,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,01</t>
+          <t>0,0; 19,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 10,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,96</t>
+          <t>0,0; 15,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 9,68</t>
+          <t>0,0; 7,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 10,15</t>
+          <t>0,0; 7,64</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,93</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,1</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 12,23</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,71%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,22</t>
+          <t>3,18; 9,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,04</t>
+          <t>3,6; 11,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,34</t>
+          <t>3,92; 11,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,26</t>
+          <t>4,25; 10,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,03</t>
+          <t>5,86; 13,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,51</t>
+          <t>4,25; 8,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,01</t>
+          <t>4,03; 8,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,95</t>
+          <t>4,85; 9,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,73</t>
+          <t>4,87; 9,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 7,97</t>
+          <t>7,2; 13,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 8,37</t>
+          <t>4,2; 7,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,31</t>
+          <t>4,25; 8,31</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 9,13</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 9,04</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,97; 11,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que vive en hogares unipersonales (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18997</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26976</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19827</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25040</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>48213</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31262</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35370</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36545</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>39563</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>63324</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50259</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>62346</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>56372</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>64602</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>111537</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7570; 36570</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12864; 48494</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9207; 37074</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12390; 44001</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25552; 76643</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17273; 50320</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17951; 57196</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21956; 55537</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22727; 59241</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>39306; 94577</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32814; 74022</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40191; 92170</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>37343; 80408</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>43535; 89365</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>79843; 153696</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19557</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24654</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27166</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24213</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>39771</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22020</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26340</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21649</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19438</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>41317</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>41577</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>50994</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>48815</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>43650</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>81087</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8187; 49493</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9483; 66732</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12039; 64627</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10787; 54150</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20863; 74872</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11766; 39582</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14124; 47762</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11763; 37896</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9883; 35766</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22959; 66737</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24837; 71863</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>29904; 91765</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>30112; 86714</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>26269; 74032</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>51434; 118046</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2890</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3382</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2517</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2655</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6657</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2890</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3382</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2517</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2655</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>10767</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14687</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17366</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13106</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14011</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22942</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16919</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13354</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15497</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11165</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11930</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3104; 28228</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>41444</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>55011</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>49511</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51907</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>94641</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>53282</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>61710</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>58194</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>59000</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>108751</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>94726</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>116721</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>107705</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>110907</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>203392</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24001; 72946</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32075; 99959</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>29941; 85352</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33537; 83478</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>61193; 137915</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>36913; 76205</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>41760; 88602</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>40773; 80776</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>40213; 81896</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>79758; 148265</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>68253; 129462</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>81955; 160051</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>77651; 146525</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>80596; 145944</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>150114; 257536</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
